--- a/data/JTSS_PRCS.xlsx
+++ b/data/JTSS_PRCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pfe-uqac\Files to use\pXRF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD Labs\pXRF_An_Content_Calculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B0A27A-FB73-4F80-9C1A-994D80514612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29656BD1-EB19-498B-AED5-5D70DE3F09A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="38415" yWindow="3990" windowWidth="28770" windowHeight="12885" activeTab="1" xr2:uid="{3EE23A4C-32E2-4AD7-B2C3-842011D06E25}"/>
+    <workbookView xWindow="40770" yWindow="4125" windowWidth="21180" windowHeight="14565" xr2:uid="{3EE23A4C-32E2-4AD7-B2C3-842011D06E25}"/>
   </bookViews>
   <sheets>
     <sheet name="Brute Data" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17564584-CA0F-44B6-B158-85AC16367CCD}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D30C11-53D6-4199-A371-601DAD448893}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
@@ -6673,38 +6673,20 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="L33:L35"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="N33:N35"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="H39:H41"/>
     <mergeCell ref="I39:I41"/>
     <mergeCell ref="L2:L8"/>
@@ -6721,24 +6703,42 @@
     <mergeCell ref="I2:I8"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:N29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="N39:N41"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
